--- a/potions.xlsx
+++ b/potions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dave_\Documents\DND tool\dnd_random_generation_tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB43E696-D9E7-45F3-9615-DC9186440519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBEC4257-F09B-4C82-B0A7-DA05FAE3E07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -675,9 +686,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C06607DA-061F-4581-816A-E1249043B1E8}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C35" sqref="C35"/>
+      <selection pane="bottomLeft" activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -766,6 +777,9 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -857,7 +871,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37985686-3E50-4889-AC5C-E298EE954F37}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
